--- a/results/InceptionNet/AppliancesEnergy/low-rank_quant-static_pruning_quant-dynamic/2_pruning_metrics.xlsx
+++ b/results/InceptionNet/AppliancesEnergy/low-rank_quant-static_pruning_quant-dynamic/2_pruning_metrics.xlsx
@@ -506,13 +506,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2.769</v>
+        <v>-0.233</v>
       </c>
       <c r="C4" t="n">
-        <v>-2.928</v>
+        <v>-1.188</v>
       </c>
       <c r="D4" t="n">
-        <v>5.74</v>
+        <v>409.87</v>
       </c>
     </row>
     <row r="5">
@@ -522,13 +522,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.094</v>
+        <v>-0.047</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.141</v>
+        <v>0.105</v>
       </c>
       <c r="D5" t="n">
-        <v>50</v>
+        <v>-323.4</v>
       </c>
     </row>
     <row r="6">
@@ -538,13 +538,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>11.992</v>
+        <v>3.61</v>
       </c>
       <c r="C6" t="n">
-        <v>12.499</v>
+        <v>6.408</v>
       </c>
       <c r="D6" t="n">
-        <v>4.23</v>
+        <v>77.51000000000001</v>
       </c>
     </row>
     <row r="7">
@@ -554,13 +554,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8090000000000001</v>
+        <v>0.216</v>
       </c>
       <c r="C7" t="n">
-        <v>0.846</v>
+        <v>0.424</v>
       </c>
       <c r="D7" t="n">
-        <v>4.57</v>
+        <v>96.3</v>
       </c>
     </row>
     <row r="8">
@@ -570,13 +570,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22.384</v>
+        <v>14.029</v>
       </c>
       <c r="C8" t="n">
-        <v>22.944</v>
+        <v>13.972</v>
       </c>
       <c r="D8" t="n">
-        <v>2.5</v>
+        <v>-0.41</v>
       </c>
     </row>
     <row r="9">
@@ -586,13 +586,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>10.418</v>
+        <v>2.476</v>
       </c>
       <c r="C9" t="n">
-        <v>10.832</v>
+        <v>6.613</v>
       </c>
       <c r="D9" t="n">
-        <v>3.97</v>
+        <v>167.08</v>
       </c>
     </row>
     <row r="10">
@@ -602,13 +602,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>162.264</v>
+        <v>26.348</v>
       </c>
       <c r="C10" t="n">
-        <v>175.477</v>
+        <v>54.206</v>
       </c>
       <c r="D10" t="n">
-        <v>8.140000000000001</v>
+        <v>105.73</v>
       </c>
     </row>
     <row r="11">
@@ -618,13 +618,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.211</v>
+        <v>0.107</v>
       </c>
       <c r="C11" t="n">
-        <v>2.787</v>
+        <v>0.335</v>
       </c>
       <c r="D11" t="n">
-        <v>26.05</v>
+        <v>213.08</v>
       </c>
     </row>
     <row r="12">
@@ -634,13 +634,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-8.615</v>
+        <v>-0.795</v>
       </c>
       <c r="C12" t="n">
-        <v>-9.398</v>
+        <v>-2.693</v>
       </c>
       <c r="D12" t="n">
-        <v>9.09</v>
+        <v>238.74</v>
       </c>
     </row>
     <row r="13">
@@ -650,13 +650,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>12.738</v>
+        <v>5.133</v>
       </c>
       <c r="C13" t="n">
-        <v>13.247</v>
+        <v>7.362</v>
       </c>
       <c r="D13" t="n">
-        <v>4</v>
+        <v>43.42</v>
       </c>
     </row>
   </sheetData>
@@ -745,22 +745,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3.643563970923424</v>
+        <v>5.508595773151943</v>
       </c>
       <c r="C4" t="n">
-        <v>3.732682026922703</v>
+        <v>5.706293333144415</v>
       </c>
       <c r="D4" t="n">
-        <v>2.45</v>
+        <v>3.59</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1481864453067746</v>
+        <v>1.480094227932339</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7096328805134166</v>
+        <v>1.147267075528906</v>
       </c>
       <c r="G4" t="n">
-        <v>378.88</v>
+        <v>-22.49</v>
       </c>
     </row>
     <row r="5">
@@ -793,22 +793,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.283802942363624</v>
+        <v>4.177380543669734</v>
       </c>
       <c r="C6" t="n">
-        <v>4.138421599586604</v>
+        <v>3.698890961673103</v>
       </c>
       <c r="D6" t="n">
-        <v>-3.39</v>
+        <v>-11.45</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5506694847160191</v>
+        <v>0.7036358997136321</v>
       </c>
       <c r="F6" t="n">
-        <v>0.7425293853059971</v>
+        <v>0.7272030523043742</v>
       </c>
       <c r="G6" t="n">
-        <v>34.84</v>
+        <v>3.35</v>
       </c>
     </row>
   </sheetData>

--- a/results/InceptionNet/AppliancesEnergy/low-rank_quant-static_pruning_quant-dynamic/2_pruning_metrics.xlsx
+++ b/results/InceptionNet/AppliancesEnergy/low-rank_quant-static_pruning_quant-dynamic/2_pruning_metrics.xlsx
@@ -506,13 +506,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.233</v>
+        <v>-0.033</v>
       </c>
       <c r="C4" t="n">
-        <v>-1.188</v>
+        <v>-0.395</v>
       </c>
       <c r="D4" t="n">
-        <v>409.87</v>
+        <v>1096.97</v>
       </c>
     </row>
     <row r="5">
@@ -522,13 +522,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.047</v>
+        <v>-0.014</v>
       </c>
       <c r="C5" t="n">
-        <v>0.105</v>
+        <v>-0.027</v>
       </c>
       <c r="D5" t="n">
-        <v>-323.4</v>
+        <v>92.86</v>
       </c>
     </row>
     <row r="6">
@@ -538,13 +538,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.61</v>
+        <v>2.763</v>
       </c>
       <c r="C6" t="n">
-        <v>6.408</v>
+        <v>3.733</v>
       </c>
       <c r="D6" t="n">
-        <v>77.51000000000001</v>
+        <v>35.11</v>
       </c>
     </row>
     <row r="7">
@@ -554,13 +554,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.216</v>
+        <v>0.206</v>
       </c>
       <c r="C7" t="n">
-        <v>0.424</v>
+        <v>0.231</v>
       </c>
       <c r="D7" t="n">
-        <v>96.3</v>
+        <v>12.14</v>
       </c>
     </row>
     <row r="8">
@@ -570,13 +570,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14.029</v>
+        <v>10.245</v>
       </c>
       <c r="C8" t="n">
-        <v>13.972</v>
+        <v>14.169</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.41</v>
+        <v>38.3</v>
       </c>
     </row>
     <row r="9">
@@ -586,13 +586,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2.476</v>
+        <v>2.531</v>
       </c>
       <c r="C9" t="n">
-        <v>6.613</v>
+        <v>2.916</v>
       </c>
       <c r="D9" t="n">
-        <v>167.08</v>
+        <v>15.21</v>
       </c>
     </row>
     <row r="10">
@@ -602,13 +602,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>26.348</v>
+        <v>12.051</v>
       </c>
       <c r="C10" t="n">
-        <v>54.206</v>
+        <v>25.572</v>
       </c>
       <c r="D10" t="n">
-        <v>105.73</v>
+        <v>112.2</v>
       </c>
     </row>
     <row r="11">
@@ -618,13 +618,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.107</v>
+        <v>0.05</v>
       </c>
       <c r="C11" t="n">
-        <v>0.335</v>
+        <v>0.117</v>
       </c>
       <c r="D11" t="n">
-        <v>213.08</v>
+        <v>134</v>
       </c>
     </row>
     <row r="12">
@@ -634,13 +634,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.795</v>
+        <v>-0.019</v>
       </c>
       <c r="C12" t="n">
-        <v>-2.693</v>
+        <v>-1.163</v>
       </c>
       <c r="D12" t="n">
-        <v>238.74</v>
+        <v>6021.05</v>
       </c>
     </row>
     <row r="13">
@@ -650,13 +650,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>5.133</v>
+        <v>3.471</v>
       </c>
       <c r="C13" t="n">
-        <v>7.362</v>
+        <v>5.057</v>
       </c>
       <c r="D13" t="n">
-        <v>43.42</v>
+        <v>45.69</v>
       </c>
     </row>
   </sheetData>
@@ -745,22 +745,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5.508595773151943</v>
+        <v>4.642863216854277</v>
       </c>
       <c r="C4" t="n">
-        <v>5.706293333144415</v>
+        <v>4.763999978701274</v>
       </c>
       <c r="D4" t="n">
-        <v>3.59</v>
+        <v>2.61</v>
       </c>
       <c r="E4" t="n">
-        <v>1.480094227932339</v>
+        <v>0.6920292981070615</v>
       </c>
       <c r="F4" t="n">
-        <v>1.147267075528906</v>
+        <v>0.635032494692823</v>
       </c>
       <c r="G4" t="n">
-        <v>-22.49</v>
+        <v>-8.24</v>
       </c>
     </row>
     <row r="5">
@@ -770,13 +770,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.678</v>
+        <v>2.122</v>
       </c>
       <c r="C5" t="n">
-        <v>0.434</v>
+        <v>0.591</v>
       </c>
       <c r="D5" t="n">
-        <v>-74.14</v>
+        <v>-72.15000000000001</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -793,22 +793,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.177380543669734</v>
+        <v>2.12425622644814</v>
       </c>
       <c r="C6" t="n">
-        <v>3.698890961673103</v>
+        <v>2.078785822109962</v>
       </c>
       <c r="D6" t="n">
-        <v>-11.45</v>
+        <v>-2.14</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7036358997136321</v>
+        <v>0.3356460196431488</v>
       </c>
       <c r="F6" t="n">
-        <v>0.7272030523043742</v>
+        <v>0.3867931132274051</v>
       </c>
       <c r="G6" t="n">
-        <v>3.35</v>
+        <v>15.24</v>
       </c>
     </row>
   </sheetData>

--- a/results/InceptionNet/AppliancesEnergy/low-rank_quant-static_pruning_quant-dynamic/2_pruning_metrics.xlsx
+++ b/results/InceptionNet/AppliancesEnergy/low-rank_quant-static_pruning_quant-dynamic/2_pruning_metrics.xlsx
@@ -84,11 +84,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -467,8 +469,8 @@
       <c r="B1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="n"/>
-      <c r="D1" s="1" t="n"/>
+      <c r="C1" s="2" t="n"/>
+      <c r="D1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -483,7 +485,7 @@
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t>fedcore</t>
+          <t>approach</t>
         </is>
       </c>
       <c r="D2" s="1" t="inlineStr">
@@ -686,13 +688,13 @@
       <c r="B1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="n"/>
-      <c r="D1" s="1" t="n"/>
+      <c r="C1" s="2" t="n"/>
+      <c r="D1" s="3" t="n"/>
       <c r="E1" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F1" s="1" t="n"/>
-      <c r="G1" s="1" t="n"/>
+      <c r="F1" s="2" t="n"/>
+      <c r="G1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -707,7 +709,7 @@
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t>fedcore</t>
+          <t>approach</t>
         </is>
       </c>
       <c r="D2" s="1" t="inlineStr">
@@ -722,7 +724,7 @@
       </c>
       <c r="F2" s="1" t="inlineStr">
         <is>
-          <t>fedcore</t>
+          <t>approach</t>
         </is>
       </c>
       <c r="G2" s="1" t="inlineStr">
@@ -784,7 +786,6 @@
       <c r="F5" t="n">
         <v>0</v>
       </c>
-      <c r="G5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
